--- a/Results/Results_Lorenz.xlsx
+++ b/Results/Results_Lorenz.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003486645912540095</v>
+        <v>0.003529819732802787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01612416397543768</v>
+        <v>0.01632382341170506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02535214409445991</v>
+        <v>0.03053095261188718</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 20, max\_features: 8 \\</t>
+          <t>max\_depth: 16, max\_features: 8 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001668572693646697</v>
+        <v>0.001606886717394256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007716395754594049</v>
+        <v>0.007431125950596459</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01261579451011609</v>
+        <v>0.01197535801897059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000632690882241734</v>
+        <v>0.0006326908820275918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002925909824779988</v>
+        <v>0.002925909823789677</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005323457809918341</v>
+        <v>0.00532345780696645</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.00166849628670364</v>
+        <v>0.002023570636937059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007716042406961504</v>
+        <v>0.009358101047342526</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01386484587863688</v>
+        <v>0.01369004411747471</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 12, max\_features: 2, n\_estimators: 200 \\</t>
+          <t>learning\_rate: 0.05, max\_depth: 12, max\_features: 2, n\_estimators: 150 \\</t>
         </is>
       </c>
     </row>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.757985514975853e-08</v>
+        <v>5.37332390596245e-08</v>
       </c>
       <c r="D10" t="n">
-        <v>2.662808468096715e-07</v>
+        <v>2.484919832015821e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>6.869801626171417e-07</v>
+        <v>6.8077602515587e-07</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001463066448126644</v>
+        <v>0.001232228305111402</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006766022105000291</v>
+        <v>0.005698499860663269</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0208272241341881</v>
+        <v>0.01564928222224836</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001996477970141549</v>
+        <v>0.0001445091473721865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000923280968914308</v>
+        <v>0.0006682895959694126</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002151405675474372</v>
+        <v>0.001587714205023504</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0003682168873153475</v>
+        <v>0.000351981981021573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001702836943735578</v>
+        <v>0.001627757828226548</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00655585364782557</v>
+        <v>0.003288286410880964</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0003520996136899991</v>
+        <v>0.0004588197143900163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001628301826235566</v>
+        <v>0.002121834133882108</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004995630529920255</v>
+        <v>0.008268828290244782</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000209354834105369</v>
+        <v>0.0002485619719686717</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0009681716351019635</v>
+        <v>0.001149486955261597</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0008812477591239371</v>
+        <v>0.00245508401115988</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,18 +881,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.984341199963769e-07</v>
+        <v>1.338106340923726e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>1.380123134781238e-06</v>
+        <v>6.188137998191108e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>9.143517960498375e-07</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5]</t>
-        </is>
+        <v>1.268287660192419e-06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -910,22 +908,20 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.915963748847965e-06</v>
+        <v>1.338074056461835e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>1.348501649214024e-05</v>
+        <v>6.187988697123418e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>2.456091471169289e-05</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 22, 22, 22, 22, 23, 24, 25, 26, 27, 28, 29, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-        </is>
+        <v>1.268256296311108e-05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>omega: 1000, r: 0.7 \\</t>
+          <t>omega: 1000, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -939,22 +935,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.666700256977358e-05</v>
+        <v>3.715071274662029e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003083048029969957</v>
+        <v>0.0001718052819692513</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004966354952043477</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5]</t>
-        </is>
+        <v>3.764489808488576e-05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>mu: 0.3, omega: 1000 \\</t>
+          <t>mu: 0.7, omega: 1000 \\</t>
         </is>
       </c>
     </row>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.476835191056145e-07</v>
+        <v>1.476835191767715e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>6.82969632782069e-07</v>
+        <v>6.829696331111383e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>1.50179159221439e-06</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>1.501791598159058e-06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.9, beta: 0.01, lambda1: 0.001, r: 0.75, s: 10000 \\</t>
+          <t>alpha: 0.9, beta: 0.01, lambda1: 0.001, omega: 10000, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -997,22 +989,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0003981348387958638</v>
+        <v>0.001204457759026068</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001841193968676374</v>
+        <v>0.005570073616645519</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005052035585195628</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 5, 5, 5, 6, 6, 7, 7, 8, 8, 9, 9, 10, 10, 11, 11, 12, 12, 13, 13, 14, 14, 15, 15, 15, 15, 16, 16, 16, 16, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 17, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 21, 21, 21, 21, 21, 21, 21, 21, 22, 22, 22, 22, 22, 22, 23, 23, 23, 23, 23, 23, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 25, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 27, 27, 27, 27, 27, 27, 27, 27, 27, 28, 28, 28, 28, 28, 28, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 30, 30, 30, 30, 30, 30, 30, 30, 30, 31, 31, 31, 31, 31, 32, 32, 32, 32, 33, 33, 33, 34, 34, 34, 35, 35, 35, 36, 36, 36, 37, 37, 37, 38, 38, 38, 38, 38, 38, 38, 38, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 43, 43, 43, 43, 43, 43, 43, 43, 44, 44, 44, 44, 44, 44, 44, 44, 44, 45, 45, 45, 45, 45, 45, 45, 45, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 47, 47, 47, 47, 47, 47, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 45, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 46, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 46, 46, 46, 46, 46, 46, 46, 46, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 47, 48, 48, 48, 48, 48, 49, 49, 49, 50, 50, 50, 50, 51, 51, 51, 51, 51, 51, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 51, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 53, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54, 54]</t>
-        </is>
+        <v>0.006938392980275124</v>
+      </c>
+      <c r="F20" t="n">
+        <v>135</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.1, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.338257307236853e-07</v>
+        <v>4.842056486260376e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>6.188836149264858e-07</v>
+        <v>0.0002239232624167312</v>
       </c>
       <c r="E21" t="n">
-        <v>1.269596870491688e-06</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.0006631986924190918</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.01, beta: 0.25, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1043,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0003538980048291321</v>
+        <v>0.00053234242648731</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001636618573719175</v>
+        <v>0.002461843499763487</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002078527058974083</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 5, 5, 5, 6, 6, 7, 7, 8, 8, 8, 9, 9, 9, 10, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 14, 15, 16, 16, 16, 16, 16, 16, 16, 16, 16, 17, 17, 17, 18, 18, 18, 19, 19, 19, 19, 19, 20, 20, 20, 20, 20, 20, 20, 20, 20, 21, 21, 21, 21, 21, 21, 21, 21, 22, 22, 22, 22, 22, 22, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20, 20]</t>
-        </is>
+        <v>0.00636618495118297</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.05, lambda1: 1e-07, sigma: 10 \\</t>
+          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.05, lambda1: 1e-07, sigma: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1084,13 +1070,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01210868036256883</v>
+        <v>0.01093616571092094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05599718256161659</v>
+        <v>0.0505748314020747</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1509731115488387</v>
+        <v>0.147616891816738</v>
       </c>
       <c r="F23" t="n">
         <v>19</v>
@@ -1111,20 +1097,20 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.027317851630267e-16</v>
+        <v>4.704928133122739e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>9.375430224345313e-16</v>
+        <v>2.175816948841045e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>2.320939503705635e-15</v>
+        <v>7.643870565144094e-05</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.97, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
         </is>
       </c>
     </row>
@@ -1138,20 +1124,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.338646179736705e-06</v>
+        <v>3.682154903488048e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>6.190634509095605e-06</v>
+        <v>0.0001702830483395708</v>
       </c>
       <c r="E25" t="n">
-        <v>1.270656023692269e-05</v>
+        <v>0.0006065444163632512</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: max, rules: 19 \\</t>
         </is>
       </c>
     </row>
@@ -1165,20 +1151,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01210868036256883</v>
+        <v>0.009651159660141375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05599718256161658</v>
+        <v>0.04463225828397319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1509731115488388</v>
+        <v>0.1419375119053592</v>
       </c>
       <c r="F26" t="n">
         <v>19</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>error\_metric: RMSE, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1192,20 +1178,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.950974272914481e-17</v>
+        <v>4.195148993196238e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>3.676966808698994e-16</v>
+        <v>1.940067100717115e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>7.853531893758068e-16</v>
+        <v>5.294535516823474e-05</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.97, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: prod, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1219,20 +1205,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.338646179736705e-06</v>
+        <v>3.150099509039078e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>6.190634509095605e-06</v>
+        <v>0.0001456778872784597</v>
       </c>
       <c r="E28" t="n">
-        <v>1.270656023692269e-05</v>
+        <v>0.0003742902614718979</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: max, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1232,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02953254661746663</v>
+        <v>0.0314101423663884</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1365747013654669</v>
+        <v>0.14525773442779</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6282009628587605</v>
+        <v>0.589901395366295</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1261,7 +1247,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1275,13 +1261,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.078499854214184e-05</v>
+        <v>5.261160953178413e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>4.987575146157076e-05</v>
+        <v>0.00024330495277743</v>
       </c>
       <c r="E30" t="n">
-        <v>7.502858961988737e-05</v>
+        <v>0.0007565147800562813</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1304,13 +1290,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.451585183708353e-05</v>
+        <v>8.186875239330975e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>6.712926438055716e-05</v>
+        <v>0.0003786060360492807</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001076134734013924</v>
+        <v>0.0009125265458465387</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
